--- a/SupplementalData/SupplementalTables.xlsx
+++ b/SupplementalData/SupplementalTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashley/Desktop/Hostetler_et_al_2025/Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashley/Desktop/Hostetler_Kennebeck_et_al_2026/SupplementalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B83100B-B6F3-5040-B94E-83BD17FEDD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD8C0F4-0760-214A-AA9A-8BAEBE438A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56020" yWindow="1040" windowWidth="31020" windowHeight="19600" activeTab="6" xr2:uid="{086B9C31-C1F1-FE4B-8A13-192042F6E99A}"/>
+    <workbookView xWindow="56020" yWindow="1040" windowWidth="44860" windowHeight="27760" activeTab="8" xr2:uid="{086B9C31-C1F1-FE4B-8A13-192042F6E99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="18" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="134">
   <si>
     <t>PC1</t>
   </si>
@@ -742,6 +742,9 @@
       </rPr>
       <t>Likelihood ratio test between a base model and an environmental model for all trials. The base model (trait ~ Cultivar * Gravity Condition + (1|Trial) was compared to an environmental model to determine if including environmental factors as covariates reduce the variation due to trial. Four environmental models were tested: (1) (trait ~ Cultivar * Gravity Condition + Temperature + Relative Humidity + Solar Radiation + (1| Trial)); (2) (trait ~ Cultivar * Gravity Condition + Temperature + (1| Trial)); (3) (trait ~ Cultivar * Gravity Condition Relative Humidity + (1| Trial)); (4) (trait ~ Cultivar * Gravity Condition + Solar Radiation + (1| Trial)).</t>
     </r>
+  </si>
+  <si>
+    <t>Dry Mass (%)</t>
   </si>
 </sst>
 </file>
@@ -843,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -893,13 +896,16 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,9 +917,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1538,7 +1548,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -1561,7 +1571,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>88</v>
       </c>
@@ -1582,7 +1592,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="20" t="s">
         <v>62</v>
       </c>
@@ -1628,7 +1638,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1651,7 +1661,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="3" t="s">
         <v>88</v>
       </c>
@@ -1672,7 +1682,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
@@ -1718,7 +1728,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1741,7 +1751,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="3" t="s">
         <v>88</v>
       </c>
@@ -1762,7 +1772,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="20" t="s">
         <v>62</v>
       </c>
@@ -1808,7 +1818,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -1831,7 +1841,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>88</v>
       </c>
@@ -1852,7 +1862,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="20" t="s">
         <v>62</v>
       </c>
@@ -1898,7 +1908,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -1921,7 +1931,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="3" t="s">
         <v>88</v>
       </c>
@@ -1942,7 +1952,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>62</v>
       </c>
@@ -2028,7 +2038,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -2066,7 +2076,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2102,7 +2112,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2148,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2174,7 +2184,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
@@ -2257,7 +2267,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -2295,7 +2305,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2341,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -2367,7 +2377,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2403,7 +2413,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
@@ -2486,7 +2496,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -2524,7 +2534,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
@@ -2560,7 +2570,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -2596,7 +2606,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
@@ -2632,7 +2642,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="20" t="s">
         <v>10</v>
       </c>
@@ -2715,7 +2725,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -2753,7 +2763,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
@@ -2789,7 +2799,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
@@ -2825,7 +2835,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
@@ -2861,7 +2871,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>10</v>
       </c>
@@ -2944,7 +2954,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -2982,7 +2992,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
@@ -3018,7 +3028,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
@@ -3054,7 +3064,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
@@ -3090,7 +3100,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="20" t="s">
         <v>10</v>
       </c>
@@ -3159,7 +3169,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3186,7 +3196,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -3207,12 +3217,12 @@
       <c r="G3" s="25">
         <v>5.8698381396738605E-7</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3231,10 +3241,10 @@
       <c r="G4" s="9">
         <v>1.11576341006371E-7</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="20" t="s">
         <v>62</v>
       </c>
@@ -3249,7 +3259,7 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="34"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" s="8"/>
@@ -3279,7 +3289,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3300,12 +3310,12 @@
       <c r="G8" s="9">
         <v>0.86160213806760499</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3324,10 +3334,10 @@
       <c r="G9" s="9">
         <v>3.4427625364290301E-18</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
@@ -3342,7 +3352,7 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="34"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D11" s="8"/>
@@ -3372,7 +3382,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3393,12 +3403,12 @@
       <c r="G13" s="9">
         <v>0.457338345880766</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -3417,10 +3427,10 @@
       <c r="G14" s="9">
         <v>3.5644955305635704E-15</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="20" t="s">
         <v>62</v>
       </c>
@@ -3435,7 +3445,7 @@
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="34"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D16" s="8"/>
@@ -3465,7 +3475,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3486,12 +3496,12 @@
       <c r="G18" s="9">
         <v>0.35259786299423701</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
@@ -3510,10 +3520,10 @@
       <c r="G19" s="9">
         <v>2.53216353773469E-11</v>
       </c>
-      <c r="H19" s="33"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="20" t="s">
         <v>62</v>
       </c>
@@ -3528,7 +3538,7 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="34"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D21" s="8"/>
@@ -3558,7 +3568,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="38" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3579,12 +3589,12 @@
       <c r="G23" s="9">
         <v>0.208004702787078</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
@@ -3603,10 +3613,10 @@
       <c r="G24" s="9">
         <v>1.3664645842414501E-12</v>
       </c>
-      <c r="H24" s="33"/>
+      <c r="H24" s="35"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>62</v>
       </c>
@@ -3621,20 +3631,20 @@
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="34"/>
+      <c r="H25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H23:H25"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H23:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3696,7 +3706,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -3734,7 +3744,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3770,7 +3780,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3806,7 +3816,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -3842,7 +3852,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
@@ -3926,7 +3936,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -3964,7 +3974,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
@@ -4000,7 +4010,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
+      <c r="A12" s="38"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -4036,7 +4046,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -4072,7 +4082,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="20" t="s">
         <v>10</v>
       </c>
@@ -4156,7 +4166,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -4194,7 +4204,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
+      <c r="A18" s="38"/>
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
@@ -4230,7 +4240,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -4266,7 +4276,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
@@ -4302,7 +4312,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="20" t="s">
         <v>10</v>
       </c>
@@ -4386,7 +4396,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -4424,7 +4434,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
@@ -4460,7 +4470,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
@@ -4496,7 +4506,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
+      <c r="A27" s="38"/>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
@@ -4532,7 +4542,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="38"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="20" t="s">
         <v>10</v>
       </c>
@@ -4616,7 +4626,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="17" t="s">
@@ -4654,7 +4664,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
@@ -4690,7 +4700,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
@@ -4726,7 +4736,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
@@ -4762,7 +4772,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="20" t="s">
         <v>10</v>
       </c>
@@ -5358,7 +5368,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5506,7 +5516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5B851E-41D9-314E-B768-1F571DBBF63C}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5535,7 +5545,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6222,9 +6232,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9AA4CA-634A-DC4C-B5AA-4E7A5299CC26}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A65" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6268,10 +6280,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -6289,13 +6301,13 @@
       <c r="G3" s="25">
         <v>1.5359384053638501E-9</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="3" t="s">
         <v>76</v>
       </c>
@@ -6311,11 +6323,11 @@
       <c r="G4" s="9">
         <v>5.0246448836408497E-3</v>
       </c>
-      <c r="H4" s="33"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="3" t="s">
         <v>77</v>
       </c>
@@ -6331,11 +6343,11 @@
       <c r="G5" s="9">
         <v>0.54374291230354499</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="3" t="s">
         <v>78</v>
       </c>
@@ -6351,11 +6363,11 @@
       <c r="G6" s="9">
         <v>0.29200715365264801</v>
       </c>
-      <c r="H6" s="33"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="33">
+      <c r="A7" s="38"/>
+      <c r="B7" s="35">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -6373,11 +6385,11 @@
       <c r="G7" s="9">
         <v>3.3178530080195198E-8</v>
       </c>
-      <c r="H7" s="33"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="3" t="s">
         <v>76</v>
       </c>
@@ -6393,11 +6405,11 @@
       <c r="G8" s="9">
         <v>3.7891264792820803E-2</v>
       </c>
-      <c r="H8" s="33"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="3" t="s">
         <v>77</v>
       </c>
@@ -6413,11 +6425,11 @@
       <c r="G9" s="9">
         <v>5.3297845740023997E-2</v>
       </c>
-      <c r="H9" s="33"/>
+      <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="3" t="s">
         <v>78</v>
       </c>
@@ -6433,11 +6445,11 @@
       <c r="G10" s="9">
         <v>0.88764151157767102</v>
       </c>
-      <c r="H10" s="33"/>
+      <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="33">
+      <c r="A11" s="38"/>
+      <c r="B11" s="35">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -6455,11 +6467,11 @@
       <c r="G11" s="9">
         <v>3.5068025661836299E-8</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="3" t="s">
         <v>76</v>
       </c>
@@ -6475,11 +6487,11 @@
       <c r="G12" s="9">
         <v>6.0215212065112596E-3</v>
       </c>
-      <c r="H12" s="33"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="3" t="s">
         <v>77</v>
       </c>
@@ -6495,11 +6507,11 @@
       <c r="G13" s="9">
         <v>9.3310336385413598E-2</v>
       </c>
-      <c r="H13" s="33"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="3" t="s">
         <v>78</v>
       </c>
@@ -6515,11 +6527,11 @@
       <c r="G14" s="9">
         <v>0.37106037626407801</v>
       </c>
-      <c r="H14" s="33"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="33">
+      <c r="A15" s="38"/>
+      <c r="B15" s="35">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -6537,11 +6549,11 @@
       <c r="G15" s="9">
         <v>9.8395267812201605E-11</v>
       </c>
-      <c r="H15" s="33"/>
+      <c r="H15" s="35"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="3" t="s">
         <v>76</v>
       </c>
@@ -6557,11 +6569,11 @@
       <c r="G16" s="9">
         <v>6.6015956348001396E-4</v>
       </c>
-      <c r="H16" s="33"/>
+      <c r="H16" s="35"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="3" t="s">
         <v>77</v>
       </c>
@@ -6577,11 +6589,11 @@
       <c r="G17" s="9">
         <v>0.423424466598466</v>
       </c>
-      <c r="H17" s="33"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="3" t="s">
         <v>78</v>
       </c>
@@ -6597,11 +6609,11 @@
       <c r="G18" s="9">
         <v>0.15950602102769801</v>
       </c>
-      <c r="H18" s="33"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="33">
+      <c r="A19" s="38"/>
+      <c r="B19" s="35">
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -6619,11 +6631,11 @@
       <c r="G19" s="9">
         <v>1.6170645728429401E-10</v>
       </c>
-      <c r="H19" s="33"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="3" t="s">
         <v>76</v>
       </c>
@@ -6639,11 +6651,11 @@
       <c r="G20" s="9">
         <v>2.29040916512474E-4</v>
       </c>
-      <c r="H20" s="33"/>
+      <c r="H20" s="35"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="3" t="s">
         <v>77</v>
       </c>
@@ -6659,11 +6671,11 @@
       <c r="G21" s="9">
         <v>3.34157088584063E-2</v>
       </c>
-      <c r="H21" s="33"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="34"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="20" t="s">
         <v>78</v>
       </c>
@@ -6679,7 +6691,7 @@
       <c r="G22" s="12">
         <v>0.41243150137979101</v>
       </c>
-      <c r="H22" s="34"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
@@ -6706,10 +6718,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="35">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -6727,13 +6739,13 @@
       <c r="G24" s="8">
         <v>2.0804582983590401E-5</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="3" t="s">
         <v>76</v>
       </c>
@@ -6749,11 +6761,11 @@
       <c r="G25" s="8">
         <v>0.193373987345096</v>
       </c>
-      <c r="H25" s="33"/>
+      <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
@@ -6769,11 +6781,11 @@
       <c r="G26" s="8">
         <v>0.23595774997298899</v>
       </c>
-      <c r="H26" s="33"/>
+      <c r="H26" s="35"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="3" t="s">
         <v>78</v>
       </c>
@@ -6789,11 +6801,11 @@
       <c r="G27" s="8">
         <v>0.28498238595768799</v>
       </c>
-      <c r="H27" s="33"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="33">
+      <c r="A28" s="38"/>
+      <c r="B28" s="35">
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -6811,11 +6823,11 @@
       <c r="G28" s="8">
         <v>4.1457930309119099E-8</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="3" t="s">
         <v>76</v>
       </c>
@@ -6831,11 +6843,11 @@
       <c r="G29" s="8">
         <v>7.4095039632446999E-2</v>
       </c>
-      <c r="H29" s="33"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="3" t="s">
         <v>77</v>
       </c>
@@ -6851,11 +6863,11 @@
       <c r="G30" s="8">
         <v>9.2598193661174808E-3</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
@@ -6871,11 +6883,11 @@
       <c r="G31" s="8">
         <v>0.167766366371987</v>
       </c>
-      <c r="H31" s="33"/>
+      <c r="H31" s="35"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="33">
+      <c r="A32" s="38"/>
+      <c r="B32" s="35">
         <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -6893,11 +6905,11 @@
       <c r="G32" s="8">
         <v>1.3091586019360201E-4</v>
       </c>
-      <c r="H32" s="33"/>
+      <c r="H32" s="35"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="3" t="s">
         <v>76</v>
       </c>
@@ -6913,11 +6925,11 @@
       <c r="G33" s="8">
         <v>0.35365548088219101</v>
       </c>
-      <c r="H33" s="33"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="3" t="s">
         <v>77</v>
       </c>
@@ -6933,11 +6945,11 @@
       <c r="G34" s="8">
         <v>3.07699215498954E-3</v>
       </c>
-      <c r="H34" s="33"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="3" t="s">
         <v>78</v>
       </c>
@@ -6953,11 +6965,11 @@
       <c r="G35" s="8">
         <v>0.31879437029819602</v>
       </c>
-      <c r="H35" s="33"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="33">
+      <c r="A36" s="38"/>
+      <c r="B36" s="35">
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -6975,11 +6987,11 @@
       <c r="G36" s="8">
         <v>1.95272766335086E-7</v>
       </c>
-      <c r="H36" s="33"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="3" t="s">
         <v>76</v>
       </c>
@@ -6995,11 +7007,11 @@
       <c r="G37" s="8">
         <v>0.57160283353853303</v>
       </c>
-      <c r="H37" s="33"/>
+      <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="3" t="s">
         <v>77</v>
       </c>
@@ -7015,11 +7027,11 @@
       <c r="G38" s="8">
         <v>0.23213844438608899</v>
       </c>
-      <c r="H38" s="33"/>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="35"/>
       <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
@@ -7035,11 +7047,11 @@
       <c r="G39" s="8">
         <v>0.60912168098769603</v>
       </c>
-      <c r="H39" s="33"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="33">
+      <c r="A40" s="38"/>
+      <c r="B40" s="35">
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -7057,11 +7069,11 @@
       <c r="G40" s="8">
         <v>2.5835104496746002E-7</v>
       </c>
-      <c r="H40" s="33"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="3" t="s">
         <v>76</v>
       </c>
@@ -7077,11 +7089,11 @@
       <c r="G41" s="8">
         <v>9.2833868415927501E-2</v>
       </c>
-      <c r="H41" s="33"/>
+      <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="3" t="s">
         <v>77</v>
       </c>
@@ -7097,11 +7109,11 @@
       <c r="G42" s="8">
         <v>6.80681006590145E-3</v>
       </c>
-      <c r="H42" s="33"/>
+      <c r="H42" s="35"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="3" t="s">
         <v>78</v>
       </c>
@@ -7117,7 +7129,7 @@
       <c r="G43" s="8">
         <v>0.42199805588893702</v>
       </c>
-      <c r="H43" s="33"/>
+      <c r="H43" s="35"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
@@ -7144,10 +7156,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="35">
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -7165,13 +7177,13 @@
       <c r="G45" s="8">
         <v>2.7823183672685701E-5</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="3" t="s">
         <v>76</v>
       </c>
@@ -7187,11 +7199,11 @@
       <c r="G46" s="8">
         <v>0.176107310702833</v>
       </c>
-      <c r="H46" s="33"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="35"/>
       <c r="C47" s="3" t="s">
         <v>77</v>
       </c>
@@ -7207,11 +7219,11 @@
       <c r="G47" s="8">
         <v>0.61527387781755405</v>
       </c>
-      <c r="H47" s="33"/>
+      <c r="H47" s="35"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="3" t="s">
         <v>78</v>
       </c>
@@ -7227,11 +7239,11 @@
       <c r="G48" s="8">
         <v>0.24952548822094101</v>
       </c>
-      <c r="H48" s="33"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
-      <c r="B49" s="33">
+      <c r="A49" s="38"/>
+      <c r="B49" s="35">
         <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -7249,11 +7261,11 @@
       <c r="G49" s="8">
         <v>4.70859953894594E-8</v>
       </c>
-      <c r="H49" s="33"/>
+      <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="37"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="3" t="s">
         <v>76</v>
       </c>
@@ -7269,11 +7281,11 @@
       <c r="G50" s="8">
         <v>5.3094015450082202E-2</v>
       </c>
-      <c r="H50" s="33"/>
+      <c r="H50" s="35"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="37"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="35"/>
       <c r="C51" s="3" t="s">
         <v>77</v>
       </c>
@@ -7289,11 +7301,11 @@
       <c r="G51" s="8">
         <v>4.6397234622708401E-2</v>
       </c>
-      <c r="H51" s="33"/>
+      <c r="H51" s="35"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="37"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="3" t="s">
         <v>78</v>
       </c>
@@ -7309,11 +7321,11 @@
       <c r="G52" s="8">
         <v>0.161957298383023</v>
       </c>
-      <c r="H52" s="33"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="37"/>
-      <c r="B53" s="33">
+      <c r="A53" s="38"/>
+      <c r="B53" s="35">
         <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -7331,11 +7343,11 @@
       <c r="G53" s="8">
         <v>3.2563110431821899E-4</v>
       </c>
-      <c r="H53" s="33"/>
+      <c r="H53" s="35"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="37"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="3" t="s">
         <v>76</v>
       </c>
@@ -7351,11 +7363,11 @@
       <c r="G54" s="8">
         <v>0.37063464018590297</v>
       </c>
-      <c r="H54" s="33"/>
+      <c r="H54" s="35"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="37"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="3" t="s">
         <v>77</v>
       </c>
@@ -7371,11 +7383,11 @@
       <c r="G55" s="8">
         <v>1.34817228591032E-2</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="35"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="37"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="3" t="s">
         <v>78</v>
       </c>
@@ -7391,11 +7403,11 @@
       <c r="G56" s="8">
         <v>0.32095249093513001</v>
       </c>
-      <c r="H56" s="33"/>
+      <c r="H56" s="35"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="37"/>
-      <c r="B57" s="33">
+      <c r="A57" s="38"/>
+      <c r="B57" s="35">
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -7413,11 +7425,11 @@
       <c r="G57" s="8">
         <v>2.8798275869037501E-7</v>
       </c>
-      <c r="H57" s="33"/>
+      <c r="H57" s="35"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="37"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="3" t="s">
         <v>76</v>
       </c>
@@ -7433,11 +7445,11 @@
       <c r="G58" s="8">
         <v>0.496633648679493</v>
       </c>
-      <c r="H58" s="33"/>
+      <c r="H58" s="35"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="37"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="35"/>
       <c r="C59" s="3" t="s">
         <v>77</v>
       </c>
@@ -7453,11 +7465,11 @@
       <c r="G59" s="8">
         <v>0.18540920824881599</v>
       </c>
-      <c r="H59" s="33"/>
+      <c r="H59" s="35"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="37"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="3" t="s">
         <v>78</v>
       </c>
@@ -7473,11 +7485,11 @@
       <c r="G60" s="8">
         <v>0.70457144610691003</v>
       </c>
-      <c r="H60" s="33"/>
+      <c r="H60" s="35"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="37"/>
-      <c r="B61" s="33">
+      <c r="A61" s="38"/>
+      <c r="B61" s="35">
         <v>5</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -7495,11 +7507,11 @@
       <c r="G61" s="8">
         <v>1.5535556092923E-7</v>
       </c>
-      <c r="H61" s="33"/>
+      <c r="H61" s="35"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="37"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="3" t="s">
         <v>76</v>
       </c>
@@ -7515,11 +7527,11 @@
       <c r="G62" s="8">
         <v>0.15952354446990299</v>
       </c>
-      <c r="H62" s="33"/>
+      <c r="H62" s="35"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="37"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="35"/>
       <c r="C63" s="3" t="s">
         <v>77</v>
       </c>
@@ -7535,11 +7547,11 @@
       <c r="G63" s="8">
         <v>8.5983476429269505E-3</v>
       </c>
-      <c r="H63" s="33"/>
+      <c r="H63" s="35"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="37"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="3" t="s">
         <v>78</v>
       </c>
@@ -7555,7 +7567,7 @@
       <c r="G64" s="8">
         <v>0.33881445858648901</v>
       </c>
-      <c r="H64" s="33"/>
+      <c r="H64" s="35"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
@@ -7582,10 +7594,10 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B66" s="35">
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -7603,13 +7615,13 @@
       <c r="G66" s="8">
         <v>2.4936983915616101E-9</v>
       </c>
-      <c r="H66" s="33" t="s">
+      <c r="H66" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="37"/>
-      <c r="B67" s="33"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="3" t="s">
         <v>76</v>
       </c>
@@ -7625,11 +7637,11 @@
       <c r="G67" s="8">
         <v>1.5893106589001001E-2</v>
       </c>
-      <c r="H67" s="33"/>
+      <c r="H67" s="35"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="37"/>
-      <c r="B68" s="33"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="35"/>
       <c r="C68" s="3" t="s">
         <v>77</v>
       </c>
@@ -7645,11 +7657,11 @@
       <c r="G68" s="8">
         <v>0.33745396672400002</v>
       </c>
-      <c r="H68" s="33"/>
+      <c r="H68" s="35"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="37"/>
-      <c r="B69" s="33"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="3" t="s">
         <v>78</v>
       </c>
@@ -7665,11 +7677,11 @@
       <c r="G69" s="8">
         <v>7.5205403938942896E-3</v>
       </c>
-      <c r="H69" s="33"/>
+      <c r="H69" s="35"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="37"/>
-      <c r="B70" s="33">
+      <c r="A70" s="38"/>
+      <c r="B70" s="35">
         <v>2</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -7687,11 +7699,11 @@
       <c r="G70" s="8">
         <v>8.7199110514272698E-12</v>
       </c>
-      <c r="H70" s="33"/>
+      <c r="H70" s="35"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
-      <c r="B71" s="33"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="3" t="s">
         <v>76</v>
       </c>
@@ -7707,11 +7719,11 @@
       <c r="G71" s="8">
         <v>0.11011316506818</v>
       </c>
-      <c r="H71" s="33"/>
+      <c r="H71" s="35"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
-      <c r="B72" s="33"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="3" t="s">
         <v>77</v>
       </c>
@@ -7727,11 +7739,11 @@
       <c r="G72" s="8">
         <v>6.3146495585594306E-2</v>
       </c>
-      <c r="H72" s="33"/>
+      <c r="H72" s="35"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="3" t="s">
         <v>78</v>
       </c>
@@ -7747,11 +7759,11 @@
       <c r="G73" s="8">
         <v>0.756840472535245</v>
       </c>
-      <c r="H73" s="33"/>
+      <c r="H73" s="35"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
-      <c r="B74" s="33">
+      <c r="A74" s="38"/>
+      <c r="B74" s="35">
         <v>3</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -7769,11 +7781,11 @@
       <c r="G74" s="8">
         <v>6.2006438531706999E-12</v>
       </c>
-      <c r="H74" s="33"/>
+      <c r="H74" s="35"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="3" t="s">
         <v>76</v>
       </c>
@@ -7789,11 +7801,11 @@
       <c r="G75" s="8">
         <v>1.12269039792248E-2</v>
       </c>
-      <c r="H75" s="33"/>
+      <c r="H75" s="35"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="35"/>
       <c r="C76" s="3" t="s">
         <v>77</v>
       </c>
@@ -7809,11 +7821,11 @@
       <c r="G76" s="8">
         <v>8.0797624895319103E-4</v>
       </c>
-      <c r="H76" s="33"/>
+      <c r="H76" s="35"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="37"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="3" t="s">
         <v>78</v>
       </c>
@@ -7829,11 +7841,11 @@
       <c r="G77" s="8">
         <v>4.3231848444078196E-3</v>
       </c>
-      <c r="H77" s="33"/>
+      <c r="H77" s="35"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
-      <c r="B78" s="33">
+      <c r="A78" s="38"/>
+      <c r="B78" s="35">
         <v>4</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -7851,11 +7863,11 @@
       <c r="G78" s="8">
         <v>1.59364228952196E-10</v>
       </c>
-      <c r="H78" s="33"/>
+      <c r="H78" s="35"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
-      <c r="B79" s="33"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="3" t="s">
         <v>76</v>
       </c>
@@ -7871,11 +7883,11 @@
       <c r="G79" s="8">
         <v>0.67641320001706595</v>
       </c>
-      <c r="H79" s="33"/>
+      <c r="H79" s="35"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="35"/>
       <c r="C80" s="3" t="s">
         <v>77</v>
       </c>
@@ -7891,11 +7903,11 @@
       <c r="G80" s="8">
         <v>0.173520718809204</v>
       </c>
-      <c r="H80" s="33"/>
+      <c r="H80" s="35"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
-      <c r="B81" s="33"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="35"/>
       <c r="C81" s="3" t="s">
         <v>78</v>
       </c>
@@ -7911,11 +7923,11 @@
       <c r="G81" s="8">
         <v>0.92250832444429598</v>
       </c>
-      <c r="H81" s="33"/>
+      <c r="H81" s="35"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
-      <c r="B82" s="33">
+      <c r="A82" s="38"/>
+      <c r="B82" s="35">
         <v>5</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -7933,11 +7945,11 @@
       <c r="G82" s="8">
         <v>1.02867523093746E-10</v>
       </c>
-      <c r="H82" s="33"/>
+      <c r="H82" s="35"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
-      <c r="B83" s="33"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="3" t="s">
         <v>76</v>
       </c>
@@ -7953,11 +7965,11 @@
       <c r="G83" s="8">
         <v>5.1363457511418097E-2</v>
       </c>
-      <c r="H83" s="33"/>
+      <c r="H83" s="35"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
-      <c r="B84" s="33"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="35"/>
       <c r="C84" s="3" t="s">
         <v>77</v>
       </c>
@@ -7973,11 +7985,11 @@
       <c r="G84" s="8">
         <v>2.6730575730829601E-2</v>
       </c>
-      <c r="H84" s="33"/>
+      <c r="H84" s="35"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="37"/>
-      <c r="B85" s="33"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="35"/>
       <c r="C85" s="3" t="s">
         <v>78</v>
       </c>
@@ -7993,7 +8005,7 @@
       <c r="G85" s="8">
         <v>0.191374082991353</v>
       </c>
-      <c r="H85" s="33"/>
+      <c r="H85" s="35"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
@@ -8020,10 +8032,10 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B87" s="35">
+      <c r="B87" s="34">
         <v>1</v>
       </c>
       <c r="C87" s="17" t="s">
@@ -8041,13 +8053,13 @@
       <c r="G87" s="18">
         <v>5.8103625530313702E-6</v>
       </c>
-      <c r="H87" s="35" t="s">
+      <c r="H87" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="37"/>
-      <c r="B88" s="33"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="3" t="s">
         <v>76</v>
       </c>
@@ -8063,11 +8075,11 @@
       <c r="G88" s="8">
         <v>6.7022120737287402E-2</v>
       </c>
-      <c r="H88" s="33"/>
+      <c r="H88" s="35"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
-      <c r="B89" s="33"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="35"/>
       <c r="C89" s="3" t="s">
         <v>77</v>
       </c>
@@ -8083,11 +8095,11 @@
       <c r="G89" s="8">
         <v>6.7597310213300598E-3</v>
       </c>
-      <c r="H89" s="33"/>
+      <c r="H89" s="35"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
-      <c r="B90" s="33"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="35"/>
       <c r="C90" s="3" t="s">
         <v>78</v>
       </c>
@@ -8103,11 +8115,11 @@
       <c r="G90" s="8">
         <v>0.47012522507684901</v>
       </c>
-      <c r="H90" s="33"/>
+      <c r="H90" s="35"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
-      <c r="B91" s="33">
+      <c r="A91" s="38"/>
+      <c r="B91" s="35">
         <v>2</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -8125,11 +8137,11 @@
       <c r="G91" s="8">
         <v>3.3737437732505801E-6</v>
       </c>
-      <c r="H91" s="33"/>
+      <c r="H91" s="35"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="3" t="s">
         <v>76</v>
       </c>
@@ -8145,11 +8157,11 @@
       <c r="G92" s="8">
         <v>0.35002476062036503</v>
       </c>
-      <c r="H92" s="33"/>
+      <c r="H92" s="35"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
-      <c r="B93" s="33"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="3" t="s">
         <v>77</v>
       </c>
@@ -8165,11 +8177,11 @@
       <c r="G93" s="8">
         <v>8.4114629491469604E-3</v>
       </c>
-      <c r="H93" s="33"/>
+      <c r="H93" s="35"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
-      <c r="B94" s="33"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="3" t="s">
         <v>78</v>
       </c>
@@ -8185,11 +8197,11 @@
       <c r="G94" s="8">
         <v>0.35497127851441901</v>
       </c>
-      <c r="H94" s="33"/>
+      <c r="H94" s="35"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
-      <c r="B95" s="33">
+      <c r="A95" s="38"/>
+      <c r="B95" s="35">
         <v>3</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -8207,11 +8219,11 @@
       <c r="G95" s="8">
         <v>1.3503050152761901E-4</v>
       </c>
-      <c r="H95" s="33"/>
+      <c r="H95" s="35"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
-      <c r="B96" s="33"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="3" t="s">
         <v>76</v>
       </c>
@@ -8227,11 +8239,11 @@
       <c r="G96" s="8">
         <v>0.28023541352030701</v>
       </c>
-      <c r="H96" s="33"/>
+      <c r="H96" s="35"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
-      <c r="B97" s="33"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="35"/>
       <c r="C97" s="3" t="s">
         <v>77</v>
       </c>
@@ -8247,11 +8259,11 @@
       <c r="G97" s="8">
         <v>0.10645922635404199</v>
       </c>
-      <c r="H97" s="33"/>
+      <c r="H97" s="35"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="37"/>
-      <c r="B98" s="33"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="35"/>
       <c r="C98" s="3" t="s">
         <v>78</v>
       </c>
@@ -8267,11 +8279,11 @@
       <c r="G98" s="8">
         <v>5.43969621787114E-2</v>
       </c>
-      <c r="H98" s="33"/>
+      <c r="H98" s="35"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
-      <c r="B99" s="33">
+      <c r="A99" s="38"/>
+      <c r="B99" s="35">
         <v>4</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -8289,11 +8301,11 @@
       <c r="G99" s="8">
         <v>1.9969898766819999E-7</v>
       </c>
-      <c r="H99" s="33"/>
+      <c r="H99" s="35"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="3" t="s">
         <v>76</v>
       </c>
@@ -8309,11 +8321,11 @@
       <c r="G100" s="8">
         <v>0.247914926639626</v>
       </c>
-      <c r="H100" s="33"/>
+      <c r="H100" s="35"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
-      <c r="B101" s="33"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="3" t="s">
         <v>77</v>
       </c>
@@ -8329,11 +8341,11 @@
       <c r="G101" s="8">
         <v>2.1452985488471701E-2</v>
       </c>
-      <c r="H101" s="33"/>
+      <c r="H101" s="35"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
-      <c r="B102" s="33"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="35"/>
       <c r="C102" s="3" t="s">
         <v>78</v>
       </c>
@@ -8349,11 +8361,11 @@
       <c r="G102" s="8">
         <v>7.5981237525536705E-2</v>
       </c>
-      <c r="H102" s="33"/>
+      <c r="H102" s="35"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="37"/>
-      <c r="B103" s="33">
+      <c r="A103" s="38"/>
+      <c r="B103" s="35">
         <v>5</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -8371,11 +8383,11 @@
       <c r="G103" s="8">
         <v>1.2909273124958199E-4</v>
       </c>
-      <c r="H103" s="33"/>
+      <c r="H103" s="35"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="37"/>
-      <c r="B104" s="33"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="3" t="s">
         <v>76</v>
       </c>
@@ -8391,11 +8403,11 @@
       <c r="G104" s="8">
         <v>0.57193866384719405</v>
       </c>
-      <c r="H104" s="33"/>
+      <c r="H104" s="35"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="37"/>
-      <c r="B105" s="33"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="35"/>
       <c r="C105" s="3" t="s">
         <v>77</v>
       </c>
@@ -8411,11 +8423,11 @@
       <c r="G105" s="8">
         <v>4.9293659048623102E-2</v>
       </c>
-      <c r="H105" s="33"/>
+      <c r="H105" s="35"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106" s="38"/>
-      <c r="B106" s="34"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="20" t="s">
         <v>78</v>
       </c>
@@ -8423,29 +8435,455 @@
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
-      <c r="H106" s="34"/>
+      <c r="H106" s="36"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107" s="22"/>
+      <c r="D107" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H107" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="34">
+        <v>1</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="18">
+        <v>10.7588738062173</v>
+      </c>
+      <c r="E108" s="18">
+        <v>0.26065009558220698</v>
+      </c>
+      <c r="F108" s="18">
+        <v>41.2770760056139</v>
+      </c>
+      <c r="G108" s="18">
+        <v>1.43261659984881E-11</v>
+      </c>
+      <c r="H108" s="34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="40"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D109" s="42">
+        <v>4.0533870281516997E-2</v>
+      </c>
+      <c r="E109" s="42">
+        <v>0.36861490020620102</v>
+      </c>
+      <c r="F109" s="42">
+        <v>0.109962647355933</v>
+      </c>
+      <c r="G109" s="42">
+        <v>0.91485193925088004</v>
+      </c>
+      <c r="H109" s="41"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="40"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110" s="42">
+        <v>1.8450985387344301</v>
+      </c>
+      <c r="E110" s="42">
+        <v>0.39814959763431301</v>
+      </c>
+      <c r="F110" s="42">
+        <v>4.6341841099362098</v>
+      </c>
+      <c r="G110" s="42">
+        <v>1.22935682603131E-3</v>
+      </c>
+      <c r="H110" s="41"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="40"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" s="42">
+        <v>-0.118794213164529</v>
+      </c>
+      <c r="E111" s="42">
+        <v>0.601945611394756</v>
+      </c>
+      <c r="F111" s="42">
+        <v>-0.197350409930348</v>
+      </c>
+      <c r="G111" s="42">
+        <v>0.84793840138068399</v>
+      </c>
+      <c r="H111" s="41"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="40"/>
+      <c r="B112" s="41">
+        <v>2</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D112" s="42">
+        <v>10.9538168525473</v>
+      </c>
+      <c r="E112" s="42">
+        <v>0.38012007742255599</v>
+      </c>
+      <c r="F112" s="42">
+        <v>28.816727931923101</v>
+      </c>
+      <c r="G112" s="42">
+        <v>1.8964690720093699E-12</v>
+      </c>
+      <c r="H112" s="41"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="40"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D113" s="42">
+        <v>0.103375867327563</v>
+      </c>
+      <c r="E113" s="42">
+        <v>0.53757096882128896</v>
+      </c>
+      <c r="F113" s="42">
+        <v>0.19230180445612799</v>
+      </c>
+      <c r="G113" s="42">
+        <v>0.850721714608483</v>
+      </c>
+      <c r="H113" s="41"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="40"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114" s="42">
+        <v>1.57703520526817</v>
+      </c>
+      <c r="E114" s="42">
+        <v>0.53757096882128896</v>
+      </c>
+      <c r="F114" s="42">
+        <v>2.9336316444432899</v>
+      </c>
+      <c r="G114" s="42">
+        <v>1.25192270792709E-2</v>
+      </c>
+      <c r="H114" s="41"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="40"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D115" s="42">
+        <v>0.28242527437415299</v>
+      </c>
+      <c r="E115" s="42">
+        <v>0.76024015484511098</v>
+      </c>
+      <c r="F115" s="42">
+        <v>0.371494813282645</v>
+      </c>
+      <c r="G115" s="42">
+        <v>0.71674537400457305</v>
+      </c>
+      <c r="H115" s="41"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="40"/>
+      <c r="B116" s="41">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D116" s="42">
+        <v>14.640998698027101</v>
+      </c>
+      <c r="E116" s="42">
+        <v>0.483127354482077</v>
+      </c>
+      <c r="F116" s="42">
+        <v>30.304636163113901</v>
+      </c>
+      <c r="G116" s="42">
+        <v>1.04442449638847E-12</v>
+      </c>
+      <c r="H116" s="41"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="40"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D117" s="42">
+        <v>-0.27762844032175499</v>
+      </c>
+      <c r="E117" s="42">
+        <v>0.68324525706198802</v>
+      </c>
+      <c r="F117" s="42">
+        <v>-0.40633789616861898</v>
+      </c>
+      <c r="G117" s="42">
+        <v>0.69164728746681503</v>
+      </c>
+      <c r="H117" s="41"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="40"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" s="42">
+        <v>-1.21091327811813</v>
+      </c>
+      <c r="E118" s="42">
+        <v>0.68324525706198802</v>
+      </c>
+      <c r="F118" s="42">
+        <v>-1.77229664692464</v>
+      </c>
+      <c r="G118" s="42">
+        <v>0.101709518422908</v>
+      </c>
+      <c r="H118" s="41"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="40"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="42">
+        <v>0.61726470045904702</v>
+      </c>
+      <c r="E119" s="42">
+        <v>0.966254708964155</v>
+      </c>
+      <c r="F119" s="42">
+        <v>0.63882193249103802</v>
+      </c>
+      <c r="G119" s="42">
+        <v>0.53494206264274302</v>
+      </c>
+      <c r="H119" s="41"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="40"/>
+      <c r="B120" s="41">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D120" s="42">
+        <v>12.6032121375248</v>
+      </c>
+      <c r="E120" s="42">
+        <v>0.218809148320073</v>
+      </c>
+      <c r="F120" s="42">
+        <v>57.599109700335198</v>
+      </c>
+      <c r="G120" s="42">
+        <v>5.3354939399071901E-15</v>
+      </c>
+      <c r="H120" s="41"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="40"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D121" s="42">
+        <v>0.22562493612085399</v>
+      </c>
+      <c r="E121" s="42">
+        <v>0.30944286512555302</v>
+      </c>
+      <c r="F121" s="42">
+        <v>0.729132778774229</v>
+      </c>
+      <c r="G121" s="42">
+        <v>0.48115728942148001</v>
+      </c>
+      <c r="H121" s="41"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="40"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D122" s="42">
+        <v>0.289210404851035</v>
+      </c>
+      <c r="E122" s="42">
+        <v>0.33423649497518398</v>
+      </c>
+      <c r="F122" s="42">
+        <v>0.86528673319323701</v>
+      </c>
+      <c r="G122" s="42">
+        <v>0.40535750041297802</v>
+      </c>
+      <c r="H122" s="41"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="40"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D123" s="42">
+        <v>0.22809323205401999</v>
+      </c>
+      <c r="E123" s="42">
+        <v>0.45548756443003802</v>
+      </c>
+      <c r="F123" s="42">
+        <v>0.50076719951605797</v>
+      </c>
+      <c r="G123" s="42">
+        <v>0.626403409526188</v>
+      </c>
+      <c r="H123" s="41"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="40"/>
+      <c r="B124" s="41">
+        <v>5</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="42">
+        <v>12.484521454234301</v>
+      </c>
+      <c r="E124" s="42">
+        <v>0.73457070685463499</v>
+      </c>
+      <c r="F124" s="42">
+        <v>16.9956701754306</v>
+      </c>
+      <c r="G124" s="42">
+        <v>9.2434300869804605E-10</v>
+      </c>
+      <c r="H124" s="41"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="40"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D125" s="42">
+        <v>1.35148782926686</v>
+      </c>
+      <c r="E125" s="42">
+        <v>1.0388398561558201</v>
+      </c>
+      <c r="F125" s="42">
+        <v>1.30095877748471</v>
+      </c>
+      <c r="G125" s="42">
+        <v>0.21769917693821</v>
+      </c>
+      <c r="H125" s="41"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="40"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D126" s="42">
+        <v>0.88666308633914104</v>
+      </c>
+      <c r="E126" s="42">
+        <v>1.0388398561558201</v>
+      </c>
+      <c r="F126" s="42">
+        <v>0.85351277300834505</v>
+      </c>
+      <c r="G126" s="42">
+        <v>0.41008911304085899</v>
+      </c>
+      <c r="H126" s="41"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="39"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D127" s="10">
+        <v>0.84450179569017303</v>
+      </c>
+      <c r="E127" s="10">
+        <v>1.46914141370927</v>
+      </c>
+      <c r="F127" s="10">
+        <v>0.57482675786668203</v>
+      </c>
+      <c r="G127" s="10">
+        <v>0.57602717245942203</v>
+      </c>
+      <c r="H127" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A3:A22"/>
-    <mergeCell ref="A24:A43"/>
-    <mergeCell ref="A45:A64"/>
-    <mergeCell ref="A66:A85"/>
-    <mergeCell ref="A87:A106"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B45:B48"/>
+  <mergeCells count="42">
+    <mergeCell ref="H108:H127"/>
+    <mergeCell ref="A108:A127"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B124:B127"/>
     <mergeCell ref="B99:B102"/>
     <mergeCell ref="B103:B106"/>
     <mergeCell ref="H3:H22"/>
@@ -8462,6 +8900,25 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A3:A22"/>
+    <mergeCell ref="A24:A43"/>
+    <mergeCell ref="A45:A64"/>
+    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="A87:A106"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8469,9 +8926,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686F3163-6B67-E145-897A-91FDBD200347}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8529,10 +8988,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="35">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -8556,13 +9015,13 @@
       <c r="J3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="37"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="13" t="s">
         <v>53</v>
       </c>
@@ -8584,65 +9043,65 @@
       <c r="J4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="33"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="37"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="35"/>
       <c r="D5" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="8">
-        <v>11.175000000000001</v>
+        <v>12.4625</v>
       </c>
       <c r="F5" s="8">
-        <v>0.52091666000106696</v>
+        <v>0.40350030978922502</v>
       </c>
       <c r="G5" s="27">
         <v>9</v>
       </c>
       <c r="H5" s="8">
-        <v>9.7803843824987595</v>
+        <v>11.3822353878114</v>
       </c>
       <c r="I5" s="8">
-        <v>12.569615617501199</v>
+        <v>13.5427646121886</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="35"/>
       <c r="D6" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="8">
-        <v>12.4625</v>
+        <v>11.175000000000001</v>
       </c>
       <c r="F6" s="8">
-        <v>0.40350030978922502</v>
+        <v>0.52091666000106696</v>
       </c>
       <c r="G6" s="27">
         <v>9</v>
       </c>
       <c r="H6" s="8">
-        <v>11.3822353878114</v>
+        <v>9.7803843824987595</v>
       </c>
       <c r="I6" s="8">
-        <v>13.5427646121886</v>
+        <v>12.569615617501199</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="33"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="33">
+      <c r="A7" s="38"/>
+      <c r="B7" s="35">
         <v>2</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -8666,13 +9125,13 @@
       <c r="J7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="13" t="s">
         <v>53</v>
       </c>
@@ -8694,16 +9153,16 @@
       <c r="J8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="33"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="35"/>
       <c r="D9" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="8">
-        <v>9.5500000000000007</v>
+        <v>13.05</v>
       </c>
       <c r="F9" s="8">
         <v>0.85741253198212597</v>
@@ -8712,26 +9171,26 @@
         <v>12</v>
       </c>
       <c r="H9" s="8">
-        <v>7.3609335907778899</v>
+        <v>10.860933590777901</v>
       </c>
       <c r="I9" s="8">
-        <v>11.739066409222101</v>
+        <v>15.239066409222101</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="35"/>
       <c r="D10" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E10" s="8">
-        <v>13.05</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="F10" s="8">
         <v>0.85741253198212597</v>
@@ -8740,19 +9199,19 @@
         <v>12</v>
       </c>
       <c r="H10" s="8">
-        <v>10.860933590777901</v>
+        <v>7.3609335907778899</v>
       </c>
       <c r="I10" s="8">
-        <v>15.239066409222101</v>
+        <v>11.739066409222101</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="33">
+      <c r="A11" s="38"/>
+      <c r="B11" s="35">
         <v>3</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -8776,13 +9235,13 @@
       <c r="J11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="13" t="s">
         <v>53</v>
       </c>
@@ -8804,11 +9263,11 @@
       <c r="J12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="33"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="35"/>
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
@@ -8830,13 +9289,13 @@
       <c r="J13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="35"/>
       <c r="D14" s="13" t="s">
         <v>56</v>
       </c>
@@ -8858,11 +9317,11 @@
       <c r="J14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="33"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="33">
+      <c r="A15" s="38"/>
+      <c r="B15" s="35">
         <v>4</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -8886,13 +9345,13 @@
       <c r="J15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="13" t="s">
         <v>53</v>
       </c>
@@ -8914,65 +9373,65 @@
       <c r="J16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="33"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="35"/>
       <c r="D17" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" s="8">
-        <v>14.5416666666667</v>
+        <v>14.762499999999999</v>
       </c>
       <c r="F17" s="8">
-        <v>0.56129781747214202</v>
+        <v>0.51966080137417403</v>
       </c>
       <c r="G17" s="27">
         <v>11</v>
       </c>
       <c r="H17" s="8">
-        <v>13.0901811488188</v>
+        <v>13.418685533047601</v>
       </c>
       <c r="I17" s="8">
-        <v>15.993152184514599</v>
+        <v>16.106314466952401</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="33" t="s">
+      <c r="K17" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="35"/>
       <c r="D18" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18" s="8">
-        <v>14.762499999999999</v>
+        <v>14.5416666666667</v>
       </c>
       <c r="F18" s="8">
-        <v>0.51966080137417403</v>
+        <v>0.56129781747214202</v>
       </c>
       <c r="G18" s="27">
         <v>11</v>
       </c>
       <c r="H18" s="8">
-        <v>13.418685533047601</v>
+        <v>13.0901811488188</v>
       </c>
       <c r="I18" s="8">
-        <v>16.106314466952401</v>
+        <v>15.993152184514599</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="33"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="33">
+      <c r="A19" s="38"/>
+      <c r="B19" s="35">
         <v>5</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -8996,13 +9455,13 @@
       <c r="J19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="13" t="s">
         <v>53</v>
       </c>
@@ -9024,16 +9483,16 @@
       <c r="J20" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="35"/>
       <c r="D21" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="8">
-        <v>6.9749999999999996</v>
+        <v>8.2874999999999996</v>
       </c>
       <c r="F21" s="8">
         <v>0.36432729104474199</v>
@@ -9042,26 +9501,26 @@
         <v>12</v>
       </c>
       <c r="H21" s="8">
-        <v>6.0448332424122304</v>
+        <v>7.3573332424122304</v>
       </c>
       <c r="I21" s="8">
-        <v>7.90516675758776</v>
+        <v>9.2176667575877609</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="35"/>
       <c r="D22" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8">
-        <v>8.2874999999999996</v>
+        <v>6.9749999999999996</v>
       </c>
       <c r="F22" s="8">
         <v>0.36432729104474199</v>
@@ -9070,15 +9529,15 @@
         <v>12</v>
       </c>
       <c r="H22" s="8">
-        <v>7.3573332424122304</v>
+        <v>6.0448332424122304</v>
       </c>
       <c r="I22" s="8">
-        <v>9.2176667575877609</v>
+        <v>7.90516675758776</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K22" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
@@ -9116,127 +9575,129 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="35">
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="8">
-        <v>9.3291666666666693</v>
+        <v>10.217499999999999</v>
       </c>
       <c r="F24" s="8">
-        <v>1.00464559425786</v>
+        <v>1.13916102778414</v>
       </c>
       <c r="G24" s="27">
         <v>9</v>
       </c>
       <c r="H24" s="8">
-        <v>6.6394956628578097</v>
+        <v>7.1676997494315602</v>
       </c>
       <c r="I24" s="8">
-        <v>12.0188376704755</v>
+        <v>13.2673002505684</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="K24" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="8">
-        <v>10.217499999999999</v>
+        <v>9.3291666666666693</v>
       </c>
       <c r="F25" s="8">
-        <v>1.13916102778414</v>
+        <v>1.00464559425786</v>
       </c>
       <c r="G25" s="27">
         <v>9</v>
       </c>
       <c r="H25" s="8">
-        <v>7.1676997494315602</v>
+        <v>6.6394956628578097</v>
       </c>
       <c r="I25" s="8">
-        <v>13.2673002505684</v>
+        <v>12.0188376704755</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="33"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="8">
-        <v>7.6341666666666699</v>
+        <v>11.9125</v>
       </c>
       <c r="F26" s="8">
-        <v>1.2007811564987501</v>
+        <v>0.93012108431186702</v>
       </c>
       <c r="G26" s="27">
         <v>9</v>
       </c>
       <c r="H26" s="8">
-        <v>4.41939493321716</v>
+        <v>9.4223485228983392</v>
       </c>
       <c r="I26" s="8">
-        <v>10.8489384001162</v>
+        <v>14.402651477101699</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E27" s="8">
-        <v>11.9125</v>
+        <v>7.6341666666666699</v>
       </c>
       <c r="F27" s="8">
-        <v>0.93012108431186702</v>
+        <v>1.2007811564987501</v>
       </c>
       <c r="G27" s="27">
         <v>9</v>
       </c>
       <c r="H27" s="8">
-        <v>9.4223485228983392</v>
+        <v>4.41939493321716</v>
       </c>
       <c r="I27" s="8">
-        <v>14.402651477101699</v>
+        <v>10.8489384001162</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="33">
+      <c r="A28" s="38"/>
+      <c r="B28" s="35">
         <v>2</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="8">
-        <v>8.5287500000000094</v>
+        <v>9.6387500000000106</v>
       </c>
       <c r="F28" s="8">
         <v>0.60442336500723304</v>
@@ -9245,26 +9706,26 @@
         <v>12</v>
       </c>
       <c r="H28" s="8">
-        <v>6.9855921431541397</v>
+        <v>8.0955921431541409</v>
       </c>
       <c r="I28" s="8">
-        <v>10.0719078568459</v>
+        <v>11.1819078568459</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K28" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E29" s="8">
-        <v>9.6387500000000106</v>
+        <v>8.5287500000000094</v>
       </c>
       <c r="F29" s="8">
         <v>0.60442336500723304</v>
@@ -9273,24 +9734,25 @@
         <v>12</v>
       </c>
       <c r="H29" s="8">
-        <v>8.0955921431541409</v>
+        <v>6.9855921431541397</v>
       </c>
       <c r="I29" s="8">
-        <v>11.1819078568459</v>
+        <v>10.0719078568459</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K29" s="33"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E30" s="8">
-        <v>6.585</v>
+        <v>11.5825</v>
       </c>
       <c r="F30" s="8">
         <v>0.60442336500723304</v>
@@ -9299,26 +9761,27 @@
         <v>12</v>
       </c>
       <c r="H30" s="8">
-        <v>5.04184214315414</v>
+        <v>10.0393421431541</v>
       </c>
       <c r="I30" s="8">
-        <v>8.1281578568458706</v>
+        <v>13.125657856845899</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="3"/>
       <c r="D31" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E31" s="8">
-        <v>11.5825</v>
+        <v>6.585</v>
       </c>
       <c r="F31" s="8">
         <v>0.60442336500723304</v>
@@ -9327,19 +9790,19 @@
         <v>12</v>
       </c>
       <c r="H31" s="8">
-        <v>10.0393421431541</v>
+        <v>5.04184214315414</v>
       </c>
       <c r="I31" s="8">
-        <v>13.125657856845899</v>
+        <v>8.1281578568458706</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="33">
+      <c r="A32" s="38"/>
+      <c r="B32" s="35">
         <v>3</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -9363,13 +9826,13 @@
       <c r="J32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="13" t="s">
         <v>53</v>
       </c>
@@ -9391,11 +9854,11 @@
       <c r="J33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K33" s="33"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="35"/>
       <c r="D34" s="13" t="s">
         <v>54</v>
       </c>
@@ -9417,13 +9880,13 @@
       <c r="J34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="K34" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="37"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="35"/>
       <c r="D35" s="13" t="s">
         <v>56</v>
       </c>
@@ -9445,67 +9908,68 @@
       <c r="J35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="33"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="33">
+      <c r="A36" s="38"/>
+      <c r="B36" s="35">
         <v>4</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E36" s="8">
-        <v>10.692083333333301</v>
+        <v>10.93125</v>
       </c>
       <c r="F36" s="8">
-        <v>0.65993904198904196</v>
+        <v>0.61098482969809698</v>
       </c>
       <c r="G36" s="27">
         <v>11</v>
       </c>
       <c r="H36" s="8">
-        <v>8.9855169931621397</v>
+        <v>9.3512765806742308</v>
       </c>
       <c r="I36" s="8">
-        <v>12.398649673504501</v>
+        <v>12.5112234193258</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="37"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E37" s="8">
-        <v>10.93125</v>
+        <v>10.692083333333301</v>
       </c>
       <c r="F37" s="8">
-        <v>0.61098482969809698</v>
+        <v>0.65993904198904196</v>
       </c>
       <c r="G37" s="27">
         <v>11</v>
       </c>
       <c r="H37" s="8">
-        <v>9.3512765806742308</v>
+        <v>8.9855169931621397</v>
       </c>
       <c r="I37" s="8">
-        <v>12.5112234193258</v>
+        <v>12.398649673504501</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K37" s="33"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="13" t="s">
         <v>54</v>
       </c>
@@ -9527,13 +9991,14 @@
       <c r="J38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K38" s="33" t="s">
+      <c r="K38" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="37"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="3"/>
       <c r="D39" s="13" t="s">
         <v>56</v>
       </c>
@@ -9555,11 +10020,11 @@
       <c r="J39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K39" s="33"/>
+      <c r="K39" s="35"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="33">
+      <c r="A40" s="38"/>
+      <c r="B40" s="35">
         <v>5</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -9583,13 +10048,13 @@
       <c r="J40" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K40" s="33" t="s">
+      <c r="K40" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="13" t="s">
         <v>53</v>
       </c>
@@ -9611,16 +10076,17 @@
       <c r="J41" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K41" s="33"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E42" s="8">
-        <v>1.7075</v>
+        <v>2.9412500000000001</v>
       </c>
       <c r="F42" s="8">
         <v>0.23070600429262</v>
@@ -9629,26 +10095,27 @@
         <v>12</v>
       </c>
       <c r="H42" s="8">
-        <v>1.1184827585149499</v>
+        <v>2.3522327585149498</v>
       </c>
       <c r="I42" s="8">
-        <v>2.2965172414850499</v>
+        <v>3.53026724148505</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K42" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E43" s="8">
-        <v>2.9412500000000001</v>
+        <v>1.7075</v>
       </c>
       <c r="F43" s="8">
         <v>0.23070600429262</v>
@@ -9657,15 +10124,15 @@
         <v>12</v>
       </c>
       <c r="H43" s="8">
-        <v>2.3522327585149498</v>
+        <v>1.1184827585149499</v>
       </c>
       <c r="I43" s="8">
-        <v>3.53026724148505</v>
+        <v>2.2965172414850499</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K43" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K43" s="35"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
@@ -9703,127 +10170,129 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="35">
         <v>1</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E45" s="8">
-        <v>1.0745833333333299</v>
+        <v>1.17</v>
       </c>
       <c r="F45" s="8">
-        <v>0.111270458654289</v>
+        <v>0.12616884080029001</v>
       </c>
       <c r="G45" s="27">
         <v>9</v>
       </c>
       <c r="H45" s="8">
-        <v>0.77668631578453895</v>
+        <v>0.83221653225344805</v>
       </c>
       <c r="I45" s="8">
-        <v>1.3724803508821299</v>
+        <v>1.50778346774655</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="37"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="35"/>
       <c r="C46" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E46" s="8">
-        <v>1.17</v>
+        <v>1.0745833333333299</v>
       </c>
       <c r="F46" s="8">
-        <v>0.12616884080029001</v>
+        <v>0.111270458654289</v>
       </c>
       <c r="G46" s="27">
         <v>9</v>
       </c>
       <c r="H46" s="8">
-        <v>0.83221653225344805</v>
+        <v>0.77668631578453895</v>
       </c>
       <c r="I46" s="8">
-        <v>1.50778346774655</v>
+        <v>1.3724803508821299</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K46" s="33"/>
+      <c r="K46" s="35"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="3"/>
       <c r="D47" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E47" s="8">
-        <v>0.96083333333333398</v>
+        <v>1.2837499999999999</v>
       </c>
       <c r="F47" s="8">
-        <v>0.13299363555736601</v>
+        <v>0.10301642713305099</v>
       </c>
       <c r="G47" s="27">
         <v>9</v>
       </c>
       <c r="H47" s="8">
-        <v>0.60477829532362404</v>
+        <v>1.00795095349103</v>
       </c>
       <c r="I47" s="8">
-        <v>1.3168883713430399</v>
+        <v>1.5595490465089701</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="K47" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="37"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="3"/>
       <c r="D48" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E48" s="8">
-        <v>1.2837499999999999</v>
+        <v>0.96083333333333398</v>
       </c>
       <c r="F48" s="8">
-        <v>0.10301642713305099</v>
+        <v>0.13299363555736601</v>
       </c>
       <c r="G48" s="27">
         <v>9</v>
       </c>
       <c r="H48" s="8">
-        <v>1.00795095349103</v>
+        <v>0.60477829532362404</v>
       </c>
       <c r="I48" s="8">
-        <v>1.5595490465089701</v>
+        <v>1.3168883713430399</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K48" s="33"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="37"/>
-      <c r="B49" s="33">
+      <c r="A49" s="38"/>
+      <c r="B49" s="35">
         <v>2</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E49" s="8">
-        <v>0.98250000000000004</v>
+        <v>1.1274999999999999</v>
       </c>
       <c r="F49" s="8">
         <v>6.6426651277932097E-2</v>
@@ -9832,26 +10301,26 @@
         <v>12</v>
       </c>
       <c r="H49" s="8">
-        <v>0.81290561507367398</v>
+        <v>0.957905615073674</v>
       </c>
       <c r="I49" s="8">
-        <v>1.1520943849263201</v>
+        <v>1.2970943849263299</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="K49" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="37"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E50" s="8">
-        <v>1.1274999999999999</v>
+        <v>0.98250000000000004</v>
       </c>
       <c r="F50" s="8">
         <v>6.6426651277932097E-2</v>
@@ -9860,24 +10329,25 @@
         <v>12</v>
       </c>
       <c r="H50" s="8">
-        <v>0.957905615073674</v>
+        <v>0.81290561507367398</v>
       </c>
       <c r="I50" s="8">
-        <v>1.2970943849263299</v>
+        <v>1.1520943849263201</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K50" s="33"/>
+      <c r="K50" s="35"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="37"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="3"/>
       <c r="D51" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E51" s="8">
-        <v>0.83750000000000002</v>
+        <v>1.2725</v>
       </c>
       <c r="F51" s="8">
         <v>6.6426651277932097E-2</v>
@@ -9886,26 +10356,27 @@
         <v>12</v>
       </c>
       <c r="H51" s="8">
-        <v>0.66790561507367496</v>
+        <v>1.10290561507367</v>
       </c>
       <c r="I51" s="8">
-        <v>1.0070943849263201</v>
+        <v>1.4420943849263199</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K51" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="37"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="3"/>
       <c r="D52" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E52" s="8">
-        <v>1.2725</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="F52" s="8">
         <v>6.6426651277932097E-2</v>
@@ -9914,19 +10385,19 @@
         <v>12</v>
       </c>
       <c r="H52" s="8">
-        <v>1.10290561507367</v>
+        <v>0.66790561507367496</v>
       </c>
       <c r="I52" s="8">
-        <v>1.4420943849263199</v>
+        <v>1.0070943849263201</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K52" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="37"/>
-      <c r="B53" s="33">
+      <c r="A53" s="38"/>
+      <c r="B53" s="35">
         <v>3</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -9950,13 +10421,13 @@
       <c r="J53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K53" s="33" t="s">
+      <c r="K53" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="37"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="13" t="s">
         <v>53</v>
       </c>
@@ -9978,11 +10449,11 @@
       <c r="J54" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K54" s="33"/>
+      <c r="K54" s="35"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="37"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="35"/>
       <c r="D55" s="13" t="s">
         <v>54</v>
       </c>
@@ -10004,13 +10475,13 @@
       <c r="J55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K55" s="33" t="s">
+      <c r="K55" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="37"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="35"/>
       <c r="D56" s="13" t="s">
         <v>56</v>
       </c>
@@ -10032,67 +10503,67 @@
       <c r="J56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K56" s="33"/>
+      <c r="K56" s="35"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="37"/>
-      <c r="B57" s="33">
+      <c r="A57" s="38"/>
+      <c r="B57" s="35">
         <v>4</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E57" s="8">
-        <v>1.3645833333333299</v>
+        <v>1.4312499999999999</v>
       </c>
       <c r="F57" s="8">
-        <v>8.64188254018671E-2</v>
+        <v>8.0008285555783307E-2</v>
       </c>
       <c r="G57" s="27">
         <v>11</v>
       </c>
       <c r="H57" s="8">
-        <v>1.14110896796853</v>
+        <v>1.22435294076135</v>
       </c>
       <c r="I57" s="8">
-        <v>1.5880576986981401</v>
+        <v>1.63814705923865</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K57" s="33" t="s">
+      <c r="K57" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="37"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E58" s="8">
-        <v>1.4312499999999999</v>
+        <v>1.3645833333333299</v>
       </c>
       <c r="F58" s="8">
-        <v>8.0008285555783307E-2</v>
+        <v>8.64188254018671E-2</v>
       </c>
       <c r="G58" s="27">
         <v>11</v>
       </c>
       <c r="H58" s="8">
-        <v>1.22435294076135</v>
+        <v>1.14110896796853</v>
       </c>
       <c r="I58" s="8">
-        <v>1.63814705923865</v>
+        <v>1.5880576986981401</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K58" s="33"/>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="37"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="35"/>
       <c r="D59" s="13" t="s">
         <v>54</v>
       </c>
@@ -10114,13 +10585,13 @@
       <c r="J59" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K59" s="33" t="s">
+      <c r="K59" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="37"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="35"/>
       <c r="D60" s="13" t="s">
         <v>56</v>
       </c>
@@ -10142,11 +10613,11 @@
       <c r="J60" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K60" s="33"/>
+      <c r="K60" s="35"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="37"/>
-      <c r="B61" s="33">
+      <c r="A61" s="38"/>
+      <c r="B61" s="35">
         <v>5</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -10170,13 +10641,13 @@
       <c r="J61" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K61" s="33" t="s">
+      <c r="K61" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="37"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="13" t="s">
         <v>53</v>
       </c>
@@ -10198,16 +10669,17 @@
       <c r="J62" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K62" s="33"/>
+      <c r="K62" s="35"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="37"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="3"/>
       <c r="D63" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E63" s="8">
-        <v>0.245</v>
+        <v>0.37874999999999998</v>
       </c>
       <c r="F63" s="8">
         <v>2.7504734440940599E-2</v>
@@ -10216,26 +10688,27 @@
         <v>12</v>
       </c>
       <c r="H63" s="8">
-        <v>0.17477745482673601</v>
+        <v>0.30852745482673599</v>
       </c>
       <c r="I63" s="8">
-        <v>0.31522254517326398</v>
+        <v>0.44897254517326401</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K63" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K63" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="37"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E64" s="8">
-        <v>0.37874999999999998</v>
+        <v>0.245</v>
       </c>
       <c r="F64" s="8">
         <v>2.7504734440940599E-2</v>
@@ -10244,15 +10717,15 @@
         <v>12</v>
       </c>
       <c r="H64" s="8">
-        <v>0.30852745482673599</v>
+        <v>0.17477745482673601</v>
       </c>
       <c r="I64" s="8">
-        <v>0.44897254517326401</v>
+        <v>0.31522254517326398</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K64" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
@@ -10290,127 +10763,127 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="33">
+      <c r="B66" s="35">
         <v>1</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E66" s="8">
-        <v>5.3454166666666696</v>
+        <v>5.3968749999999996</v>
       </c>
       <c r="F66" s="8">
-        <v>0.17067386131663001</v>
+        <v>0.19352596814697001</v>
       </c>
       <c r="G66" s="27">
         <v>9</v>
       </c>
       <c r="H66" s="8">
-        <v>4.8884828598444301</v>
+        <v>4.8787607635130001</v>
       </c>
       <c r="I66" s="8">
-        <v>5.80235047348891</v>
+        <v>5.914989236487</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K66" s="33" t="s">
+      <c r="K66" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="37"/>
-      <c r="B67" s="33"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E67" s="8">
-        <v>5.3968749999999996</v>
+        <v>5.3454166666666696</v>
       </c>
       <c r="F67" s="8">
-        <v>0.19352596814697001</v>
+        <v>0.17067386131663001</v>
       </c>
       <c r="G67" s="27">
         <v>9</v>
       </c>
       <c r="H67" s="8">
-        <v>4.8787607635130001</v>
+        <v>4.8884828598444301</v>
       </c>
       <c r="I67" s="8">
-        <v>5.914989236487</v>
+        <v>5.80235047348891</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K67" s="33"/>
+      <c r="K67" s="35"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="37"/>
-      <c r="B68" s="33"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="35"/>
       <c r="D68" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E68" s="8">
-        <v>5.1016666666666701</v>
+        <v>5.640625</v>
       </c>
       <c r="F68" s="8">
-        <v>0.203994281911207</v>
+        <v>0.15801329131272901</v>
       </c>
       <c r="G68" s="27">
         <v>9</v>
       </c>
       <c r="H68" s="8">
-        <v>4.5555263081806503</v>
+        <v>5.2175864973783801</v>
       </c>
       <c r="I68" s="8">
-        <v>5.6478070251526802</v>
+        <v>6.0636635026216199</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K68" s="33" t="s">
+      <c r="K68" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="37"/>
-      <c r="B69" s="33"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="35"/>
       <c r="D69" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E69" s="8">
-        <v>5.640625</v>
+        <v>5.1016666666666701</v>
       </c>
       <c r="F69" s="8">
-        <v>0.15801329131272901</v>
+        <v>0.203994281911207</v>
       </c>
       <c r="G69" s="27">
         <v>9</v>
       </c>
       <c r="H69" s="8">
-        <v>5.2175864973783801</v>
+        <v>4.5555263081806503</v>
       </c>
       <c r="I69" s="8">
-        <v>6.0636635026216199</v>
+        <v>5.6478070251526802</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K69" s="33"/>
+      <c r="K69" s="35"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="37"/>
-      <c r="B70" s="33">
+      <c r="A70" s="38"/>
+      <c r="B70" s="35">
         <v>2</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E70" s="8">
-        <v>5.3706250000000004</v>
+        <v>5.9906249999999996</v>
       </c>
       <c r="F70" s="8">
         <v>0.15903313006519501</v>
@@ -10419,26 +10892,26 @@
         <v>12</v>
       </c>
       <c r="H70" s="8">
-        <v>4.96459631486477</v>
+        <v>5.5845963148647702</v>
       </c>
       <c r="I70" s="8">
-        <v>5.7766536851352299</v>
+        <v>6.39665368513523</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K70" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K70" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
-      <c r="B71" s="33"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E71" s="8">
-        <v>5.9906249999999996</v>
+        <v>5.3706250000000004</v>
       </c>
       <c r="F71" s="8">
         <v>0.15903313006519501</v>
@@ -10447,24 +10920,24 @@
         <v>12</v>
       </c>
       <c r="H71" s="8">
-        <v>5.5845963148647702</v>
+        <v>4.96459631486477</v>
       </c>
       <c r="I71" s="8">
-        <v>6.39665368513523</v>
+        <v>5.7766536851352299</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K71" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K71" s="35"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="37"/>
-      <c r="B72" s="33"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="35"/>
       <c r="D72" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E72" s="8">
-        <v>5.390625</v>
+        <v>5.9706250000000001</v>
       </c>
       <c r="F72" s="8">
         <v>0.15903313006519501</v>
@@ -10473,26 +10946,26 @@
         <v>12</v>
       </c>
       <c r="H72" s="8">
-        <v>4.9845963148647696</v>
+        <v>5.5645963148647697</v>
       </c>
       <c r="I72" s="8">
-        <v>5.7966536851352304</v>
+        <v>6.3766536851352296</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K72" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K72" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="37"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="35"/>
       <c r="D73" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E73" s="8">
-        <v>5.9706250000000001</v>
+        <v>5.390625</v>
       </c>
       <c r="F73" s="8">
         <v>0.15903313006519501</v>
@@ -10501,19 +10974,19 @@
         <v>12</v>
       </c>
       <c r="H73" s="8">
-        <v>5.5645963148647697</v>
+        <v>4.9845963148647696</v>
       </c>
       <c r="I73" s="8">
-        <v>6.3766536851352296</v>
+        <v>5.7966536851352304</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K73" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K73" s="35"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="37"/>
-      <c r="B74" s="33">
+      <c r="A74" s="38"/>
+      <c r="B74" s="35">
         <v>3</v>
       </c>
       <c r="C74" s="13" t="s">
@@ -10537,13 +11010,13 @@
       <c r="J74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K74" s="33" t="s">
+      <c r="K74" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="37"/>
-      <c r="B75" s="33"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="13" t="s">
         <v>53</v>
       </c>
@@ -10565,11 +11038,11 @@
       <c r="J75" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K75" s="33"/>
+      <c r="K75" s="35"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="37"/>
-      <c r="B76" s="33"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="35"/>
       <c r="D76" s="13" t="s">
         <v>54</v>
       </c>
@@ -10591,13 +11064,13 @@
       <c r="J76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K76" s="33" t="s">
+      <c r="K76" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="37"/>
-      <c r="B77" s="33"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="35"/>
       <c r="D77" s="13" t="s">
         <v>56</v>
       </c>
@@ -10619,11 +11092,11 @@
       <c r="J77" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K77" s="33"/>
+      <c r="K77" s="35"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="37"/>
-      <c r="B78" s="33">
+      <c r="A78" s="38"/>
+      <c r="B78" s="35">
         <v>4</v>
       </c>
       <c r="C78" s="13" t="s">
@@ -10647,13 +11120,13 @@
       <c r="J78" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K78" s="33" t="s">
+      <c r="K78" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="37"/>
-      <c r="B79" s="33"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="13" t="s">
         <v>53</v>
       </c>
@@ -10675,11 +11148,11 @@
       <c r="J79" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K79" s="33"/>
+      <c r="K79" s="35"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="37"/>
-      <c r="B80" s="33"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="35"/>
       <c r="D80" s="13" t="s">
         <v>54</v>
       </c>
@@ -10701,13 +11174,13 @@
       <c r="J80" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K80" s="33" t="s">
+      <c r="K80" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="37"/>
-      <c r="B81" s="33"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="35"/>
       <c r="D81" s="13" t="s">
         <v>56</v>
       </c>
@@ -10729,11 +11202,11 @@
       <c r="J81" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K81" s="33"/>
+      <c r="K81" s="35"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="37"/>
-      <c r="B82" s="33">
+      <c r="A82" s="38"/>
+      <c r="B82" s="35">
         <v>5</v>
       </c>
       <c r="C82" s="13" t="s">
@@ -10757,13 +11230,13 @@
       <c r="J82" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K82" s="33" t="s">
+      <c r="K82" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="37"/>
-      <c r="B83" s="33"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="13" t="s">
         <v>53</v>
       </c>
@@ -10785,11 +11258,12 @@
       <c r="J83" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K83" s="33"/>
+      <c r="K83" s="35"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="37"/>
-      <c r="B84" s="33"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="3"/>
       <c r="D84" s="13" t="s">
         <v>56</v>
       </c>
@@ -10811,13 +11285,14 @@
       <c r="J84" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K84" s="33" t="s">
+      <c r="K84" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="37"/>
-      <c r="B85" s="33"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="3"/>
       <c r="D85" s="13" t="s">
         <v>54</v>
       </c>
@@ -10839,7 +11314,7 @@
       <c r="J85" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K85" s="33"/>
+      <c r="K85" s="35"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
@@ -10877,128 +11352,130 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B87" s="35">
+      <c r="B87" s="34">
         <v>1</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="18">
-        <v>19.934612878131801</v>
+        <v>26.049870026731899</v>
       </c>
       <c r="F87" s="18">
-        <v>2.2518730084663798</v>
+        <v>2.5533839847860902</v>
       </c>
       <c r="G87" s="30">
         <v>9</v>
       </c>
       <c r="H87" s="18">
-        <v>13.9058226562366</v>
+        <v>19.2138644694265</v>
       </c>
       <c r="I87" s="18">
-        <v>25.963403100027001</v>
+        <v>32.885875584037201</v>
       </c>
       <c r="J87" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="K87" s="35" t="s">
+      <c r="K87" s="34" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="37"/>
-      <c r="B88" s="33"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E88" s="8">
-        <v>26.049870026731899</v>
+        <v>19.934612878131801</v>
       </c>
       <c r="F88" s="8">
-        <v>2.5533839847860902</v>
+        <v>2.2518730084663798</v>
       </c>
       <c r="G88" s="27">
         <v>9</v>
       </c>
       <c r="H88" s="8">
-        <v>19.2138644694265</v>
+        <v>13.9058226562366</v>
       </c>
       <c r="I88" s="8">
-        <v>32.885875584037201</v>
+        <v>25.963403100027001</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K88" s="33"/>
+      <c r="K88" s="35"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="37"/>
-      <c r="B89" s="33"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="3"/>
       <c r="D89" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E89" s="8">
-        <v>13.834903310461099</v>
+        <v>32.149579594402603</v>
       </c>
       <c r="F89" s="8">
-        <v>2.6915030443069301</v>
+        <v>2.0848292933734598</v>
       </c>
       <c r="G89" s="27">
         <v>9</v>
       </c>
       <c r="H89" s="8">
-        <v>6.6291207575765299</v>
+        <v>26.568004429659901</v>
       </c>
       <c r="I89" s="8">
-        <v>21.040685863345601</v>
+        <v>37.731154759145397</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K89" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K89" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="37"/>
-      <c r="B90" s="33"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E90" s="8">
-        <v>32.149579594402603</v>
+        <v>13.834903310461099</v>
       </c>
       <c r="F90" s="8">
-        <v>2.0848292933734598</v>
+        <v>2.6915030443069301</v>
       </c>
       <c r="G90" s="27">
         <v>9</v>
       </c>
       <c r="H90" s="8">
-        <v>26.568004429659901</v>
+        <v>6.6291207575765299</v>
       </c>
       <c r="I90" s="8">
-        <v>37.731154759145397</v>
+        <v>21.040685863345601</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K90" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K90" s="35"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="37"/>
-      <c r="B91" s="33">
+      <c r="A91" s="38"/>
+      <c r="B91" s="35">
         <v>2</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E91" s="8">
-        <v>18.966776421060398</v>
+        <v>20.304039031870499</v>
       </c>
       <c r="F91" s="8">
         <v>2.2889425281949101</v>
@@ -11007,26 +11484,26 @@
         <v>12</v>
       </c>
       <c r="H91" s="8">
-        <v>13.1228599698651</v>
+        <v>14.460122580675099</v>
       </c>
       <c r="I91" s="8">
-        <v>24.8106928722558</v>
+        <v>26.1479554830658</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K91" s="33" t="s">
+      <c r="K91" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="37"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E92" s="8">
-        <v>20.304039031870499</v>
+        <v>18.966776421060398</v>
       </c>
       <c r="F92" s="8">
         <v>2.2889425281949101</v>
@@ -11035,24 +11512,25 @@
         <v>12</v>
       </c>
       <c r="H92" s="8">
-        <v>14.460122580675099</v>
+        <v>13.1228599698651</v>
       </c>
       <c r="I92" s="8">
-        <v>26.1479554830658</v>
+        <v>24.8106928722558</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K92" s="33"/>
+      <c r="K92" s="35"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="37"/>
-      <c r="B93" s="33"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="3"/>
       <c r="D93" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E93" s="8">
-        <v>10.873368918343999</v>
+        <v>28.397446534586901</v>
       </c>
       <c r="F93" s="8">
         <v>2.2889425281949101</v>
@@ -11061,26 +11539,27 @@
         <v>12</v>
       </c>
       <c r="H93" s="8">
-        <v>5.0294524671486496</v>
+        <v>22.5535300833916</v>
       </c>
       <c r="I93" s="8">
-        <v>16.717285369539301</v>
+        <v>34.241362985782203</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K93" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K93" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" s="37"/>
-      <c r="B94" s="33"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="3"/>
       <c r="D94" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E94" s="8">
-        <v>28.397446534586901</v>
+        <v>10.873368918343999</v>
       </c>
       <c r="F94" s="8">
         <v>2.2889425281949101</v>
@@ -11089,19 +11568,19 @@
         <v>12</v>
       </c>
       <c r="H94" s="8">
-        <v>22.5535300833916</v>
+        <v>5.0294524671486496</v>
       </c>
       <c r="I94" s="8">
-        <v>34.241362985782203</v>
+        <v>16.717285369539301</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K94" s="33"/>
+        <v>71</v>
+      </c>
+      <c r="K94" s="35"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" s="37"/>
-      <c r="B95" s="33">
+      <c r="A95" s="38"/>
+      <c r="B95" s="35">
         <v>3</v>
       </c>
       <c r="C95" s="13" t="s">
@@ -11125,13 +11604,13 @@
       <c r="J95" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K95" s="33" t="s">
+      <c r="K95" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" s="37"/>
-      <c r="B96" s="33"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="35"/>
       <c r="C96" s="13" t="s">
         <v>53</v>
       </c>
@@ -11153,11 +11632,11 @@
       <c r="J96" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K96" s="33"/>
+      <c r="K96" s="35"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" s="37"/>
-      <c r="B97" s="33"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="35"/>
       <c r="D97" s="13" t="s">
         <v>54</v>
       </c>
@@ -11179,13 +11658,13 @@
       <c r="J97" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K97" s="33" t="s">
+      <c r="K97" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" s="37"/>
-      <c r="B98" s="33"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="35"/>
       <c r="D98" s="13" t="s">
         <v>56</v>
       </c>
@@ -11207,11 +11686,11 @@
       <c r="J98" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K98" s="33"/>
+      <c r="K98" s="35"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99" s="37"/>
-      <c r="B99" s="33">
+      <c r="A99" s="38"/>
+      <c r="B99" s="35">
         <v>4</v>
       </c>
       <c r="C99" s="13" t="s">
@@ -11235,13 +11714,13 @@
       <c r="J99" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K99" s="33" t="s">
+      <c r="K99" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A100" s="37"/>
-      <c r="B100" s="33"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="13" t="s">
         <v>53</v>
       </c>
@@ -11263,11 +11742,11 @@
       <c r="J100" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K100" s="33"/>
+      <c r="K100" s="35"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" s="37"/>
-      <c r="B101" s="33"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="35"/>
       <c r="D101" s="13" t="s">
         <v>54</v>
       </c>
@@ -11289,13 +11768,13 @@
       <c r="J101" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K101" s="33" t="s">
+      <c r="K101" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A102" s="37"/>
-      <c r="B102" s="33"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="35"/>
       <c r="D102" s="13" t="s">
         <v>56</v>
       </c>
@@ -11317,11 +11796,11 @@
       <c r="J102" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K102" s="33"/>
+      <c r="K102" s="35"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A103" s="37"/>
-      <c r="B103" s="33">
+      <c r="A103" s="38"/>
+      <c r="B103" s="35">
         <v>5</v>
       </c>
       <c r="C103" s="13" t="s">
@@ -11345,13 +11824,13 @@
       <c r="J103" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K103" s="33" t="s">
+      <c r="K103" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" s="37"/>
-      <c r="B104" s="33"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="13" t="s">
         <v>53</v>
       </c>
@@ -11373,16 +11852,17 @@
       <c r="J104" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K104" s="33"/>
+      <c r="K104" s="35"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A105" s="37"/>
-      <c r="B105" s="33"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="3"/>
       <c r="D105" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E105" s="8">
-        <v>0.27124172185430501</v>
+        <v>5.6261670756060802</v>
       </c>
       <c r="F105" s="8">
         <v>0.39097316845975799</v>
@@ -11391,27 +11871,27 @@
         <v>12</v>
       </c>
       <c r="H105" s="8">
-        <v>-0.72695482654910903</v>
+        <v>4.6279705272026703</v>
       </c>
       <c r="I105" s="8">
-        <v>1.26943827025772</v>
+        <v>6.6243636240094999</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K105" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K105" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" s="38"/>
-      <c r="B106" s="34"/>
-      <c r="C106" s="19"/>
+      <c r="A106" s="39"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="20"/>
       <c r="D106" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E106" s="10">
-        <v>5.6261670756060802</v>
+        <v>0.27124172185430501</v>
       </c>
       <c r="F106" s="10">
         <v>0.39097316845975799</v>
@@ -11420,27 +11900,696 @@
         <v>12</v>
       </c>
       <c r="H106" s="10">
-        <v>4.6279705272026703</v>
+        <v>-0.72695482654910903</v>
       </c>
       <c r="I106" s="10">
-        <v>6.6243636240094999</v>
+        <v>1.26943827025772</v>
       </c>
       <c r="J106" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K106" s="36"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G107" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I107" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="J107" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K107" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="34">
+        <v>1</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" s="17"/>
+      <c r="E108" s="18">
+        <v>11.6625598392838</v>
+      </c>
+      <c r="F108" s="18">
+        <v>0.22572960427303401</v>
+      </c>
+      <c r="G108" s="17">
+        <v>9</v>
+      </c>
+      <c r="H108" s="18">
+        <v>11.058228944105799</v>
+      </c>
+      <c r="I108" s="18">
+        <v>12.2668907344617</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K108" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="38"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="8">
+        <v>11.681423075584499</v>
+      </c>
+      <c r="F109" s="8">
+        <v>0.19907479881715701</v>
+      </c>
+      <c r="G109" s="3">
+        <v>9</v>
+      </c>
+      <c r="H109" s="8">
+        <v>11.148453322839901</v>
+      </c>
+      <c r="I109" s="8">
+        <v>12.2143928283291</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K109" s="35"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="38"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" s="8">
+        <v>10.7791407413581</v>
+      </c>
+      <c r="F110" s="8">
+        <v>0.18430745010310101</v>
+      </c>
+      <c r="G110" s="3">
+        <v>9</v>
+      </c>
+      <c r="H110" s="8">
+        <v>10.2857066316963</v>
+      </c>
+      <c r="I110" s="8">
+        <v>11.272574851019799</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K110" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="38"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" s="8">
+        <v>12.5648421735102</v>
+      </c>
+      <c r="F111" s="8">
+        <v>0.237939894943754</v>
+      </c>
+      <c r="G111" s="3">
+        <v>9</v>
+      </c>
+      <c r="H111" s="8">
+        <v>11.92782147712</v>
+      </c>
+      <c r="I111" s="8">
+        <v>13.2018628699005</v>
+      </c>
+      <c r="J111" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K106" s="34"/>
+      <c r="K111" s="35"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="38"/>
+      <c r="B112" s="35">
+        <v>2</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" s="3"/>
+      <c r="E112" s="8">
+        <v>11.986922959696001</v>
+      </c>
+      <c r="F112" s="8">
+        <v>0.26878548441064498</v>
+      </c>
+      <c r="G112" s="3">
+        <v>12</v>
+      </c>
+      <c r="H112" s="8">
+        <v>11.3006847100059</v>
+      </c>
+      <c r="I112" s="8">
+        <v>12.673161209386199</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K112" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="38"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D113" s="3"/>
+      <c r="E113" s="8">
+        <v>11.7423344551814</v>
+      </c>
+      <c r="F113" s="8">
+        <v>0.26878548441064398</v>
+      </c>
+      <c r="G113" s="3">
+        <v>12</v>
+      </c>
+      <c r="H113" s="8">
+        <v>11.056096205491199</v>
+      </c>
+      <c r="I113" s="8">
+        <v>12.4285727048716</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K113" s="35"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="38"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E114" s="8">
+        <v>11.0055047862111</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0.26878548441064498</v>
+      </c>
+      <c r="G114" s="3">
+        <v>12</v>
+      </c>
+      <c r="H114" s="8">
+        <v>10.3192665365209</v>
+      </c>
+      <c r="I114" s="8">
+        <v>11.6917430359013</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K114" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="38"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" s="8">
+        <v>12.723752628666301</v>
+      </c>
+      <c r="F115" s="8">
+        <v>0.26878548441064498</v>
+      </c>
+      <c r="G115" s="3">
+        <v>12</v>
+      </c>
+      <c r="H115" s="8">
+        <v>12.0375143789762</v>
+      </c>
+      <c r="I115" s="8">
+        <v>13.409990878356499</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K115" s="35"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="38"/>
+      <c r="B116" s="35">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="8">
+        <v>14.066545968875801</v>
+      </c>
+      <c r="F116" s="8">
+        <v>0.34162262853099401</v>
+      </c>
+      <c r="G116" s="3">
+        <v>12</v>
+      </c>
+      <c r="H116" s="8">
+        <v>13.1943466565815</v>
+      </c>
+      <c r="I116" s="8">
+        <v>14.9387452811701</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K116" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="38"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="8">
+        <v>14.035542058968</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0.34162262853099401</v>
+      </c>
+      <c r="G117" s="3">
+        <v>12</v>
+      </c>
+      <c r="H117" s="8">
+        <v>13.163342746673701</v>
+      </c>
+      <c r="I117" s="8">
+        <v>14.9077413712624</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K117" s="35"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="38"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E118" s="8">
+        <v>14.5021844778662</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0.34162262853099401</v>
+      </c>
+      <c r="G118" s="3">
+        <v>12</v>
+      </c>
+      <c r="H118" s="8">
+        <v>13.629985165571901</v>
+      </c>
+      <c r="I118" s="8">
+        <v>15.3743837901606</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K118" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="38"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E119" s="8">
+        <v>13.599903549977601</v>
+      </c>
+      <c r="F119" s="8">
+        <v>0.34162262853099401</v>
+      </c>
+      <c r="G119" s="3">
+        <v>12</v>
+      </c>
+      <c r="H119" s="8">
+        <v>12.7277042376833</v>
+      </c>
+      <c r="I119" s="8">
+        <v>14.472102862271999</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K119" s="35"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="38"/>
+      <c r="B120" s="35">
+        <v>4</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="8">
+        <v>13.0874888920982</v>
+      </c>
+      <c r="F120" s="8">
+        <v>0.15472143256277701</v>
+      </c>
+      <c r="G120" s="3">
+        <v>11</v>
+      </c>
+      <c r="H120" s="8">
+        <v>12.6873877128758</v>
+      </c>
+      <c r="I120" s="8">
+        <v>13.4875900713206</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K120" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="38"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="8">
+        <v>12.7478173399503</v>
+      </c>
+      <c r="F121" s="8">
+        <v>0.16711824748759199</v>
+      </c>
+      <c r="G121" s="3">
+        <v>11</v>
+      </c>
+      <c r="H121" s="8">
+        <v>12.3156586740057</v>
+      </c>
+      <c r="I121" s="8">
+        <v>13.1799760058949</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K121" s="35"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="38"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E122" s="8">
+        <v>12.716024605585201</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0.15472143256277701</v>
+      </c>
+      <c r="G122" s="3">
+        <v>11</v>
+      </c>
+      <c r="H122" s="8">
+        <v>12.315923426362801</v>
+      </c>
+      <c r="I122" s="8">
+        <v>13.1161257848076</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K122" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="38"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" s="8">
+        <v>13.1192816264633</v>
+      </c>
+      <c r="F123" s="8">
+        <v>0.16711824748759199</v>
+      </c>
+      <c r="G123" s="3">
+        <v>11</v>
+      </c>
+      <c r="H123" s="8">
+        <v>12.6871229605187</v>
+      </c>
+      <c r="I123" s="8">
+        <v>13.551440292407801</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K123" s="35"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="38"/>
+      <c r="B124" s="35">
+        <v>5</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="8">
+        <v>14.701591724515801</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0.51941992807790804</v>
+      </c>
+      <c r="G124" s="3">
+        <v>12</v>
+      </c>
+      <c r="H124" s="8">
+        <v>13.3754567843052</v>
+      </c>
+      <c r="I124" s="8">
+        <v>16.027726664726401</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K124" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="38"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="8">
+        <v>12.9278529974039</v>
+      </c>
+      <c r="F125" s="8">
+        <v>0.51941992807790804</v>
+      </c>
+      <c r="G125" s="3">
+        <v>12</v>
+      </c>
+      <c r="H125" s="8">
+        <v>11.601718057193301</v>
+      </c>
+      <c r="I125" s="8">
+        <v>14.253987937614401</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K125" s="35"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="38"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E126" s="8">
+        <v>13.1602653688677</v>
+      </c>
+      <c r="F126" s="8">
+        <v>0.51941992807790804</v>
+      </c>
+      <c r="G126" s="3">
+        <v>12</v>
+      </c>
+      <c r="H126" s="8">
+        <v>11.8341304286572</v>
+      </c>
+      <c r="I126" s="8">
+        <v>14.4864003090783</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K126" s="35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="39"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E127" s="10">
+        <v>14.469179353052001</v>
+      </c>
+      <c r="F127" s="10">
+        <v>0.51941992807790804</v>
+      </c>
+      <c r="G127" s="20">
+        <v>12</v>
+      </c>
+      <c r="H127" s="10">
+        <v>13.1430444128414</v>
+      </c>
+      <c r="I127" s="10">
+        <v>15.7953142932625</v>
+      </c>
+      <c r="J127" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="K127" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A24:A43"/>
-    <mergeCell ref="A45:A64"/>
-    <mergeCell ref="A66:A85"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
+  <mergeCells count="96">
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="A108:A127"/>
+    <mergeCell ref="K97:K98"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="K101:K102"/>
+    <mergeCell ref="K103:K104"/>
+    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="K89:K90"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="K82:K83"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B103:B106"/>
     <mergeCell ref="A87:A106"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
@@ -11457,61 +12606,15 @@
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
     <mergeCell ref="A3:A22"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="K82:K83"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="K89:K90"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="K97:K98"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="K101:K102"/>
-    <mergeCell ref="K103:K104"/>
-    <mergeCell ref="K105:K106"/>
+    <mergeCell ref="A24:A43"/>
+    <mergeCell ref="A45:A64"/>
+    <mergeCell ref="A66:A85"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11527,6 +12630,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d67dfac1-497d-4311-9ccc-884a85e0726b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2d8887c1-68b2-41ce-bd8d-817aa872d4f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCF05CF55E30914B9C45E07CAD35E167" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="096132d0aeef6e62aa1ea702a903e707">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d67dfac1-497d-4311-9ccc-884a85e0726b" xmlns:ns3="2d8887c1-68b2-41ce-bd8d-817aa872d4f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e4f76dbfde1365c4a9b7e5fc81d5020e" ns2:_="" ns3:_="">
     <xsd:import namespace="d67dfac1-497d-4311-9ccc-884a85e0726b"/>
@@ -11739,17 +12853,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d67dfac1-497d-4311-9ccc-884a85e0726b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="2d8887c1-68b2-41ce-bd8d-817aa872d4f7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{306D890C-6AB5-4886-B718-114AE5662249}">
   <ds:schemaRefs>
@@ -11759,6 +12862,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C7033B-5EAE-40C0-9ADD-826066E23F01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d67dfac1-497d-4311-9ccc-884a85e0726b"/>
+    <ds:schemaRef ds:uri="2d8887c1-68b2-41ce-bd8d-817aa872d4f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87111EE9-9D1A-421B-9BA1-D6358F4AA5E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11775,15 +12889,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42C7033B-5EAE-40C0-9ADD-826066E23F01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d67dfac1-497d-4311-9ccc-884a85e0726b"/>
-    <ds:schemaRef ds:uri="2d8887c1-68b2-41ce-bd8d-817aa872d4f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>